--- a/OrderForms/Hold distro.xlsx
+++ b/OrderForms/Hold distro.xlsx
@@ -5,28 +5,29 @@
   <fileSharing readOnlyRecommended="0" userName="jacob"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cheeta" sheetId="1" r:id="rId4"/>
     <sheet name="BluePill" sheetId="2" r:id="rId5"/>
     <sheet name="XCult" sheetId="3" r:id="rId6"/>
     <sheet name="Summary" sheetId="4" r:id="rId7"/>
+    <sheet name="Flathold" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715360988" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715360988" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715360988" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715360988"/>
+      <pm:revision xmlns:pm="smNativeData" day="1715364026" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1715364026" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1715364026" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1715364026"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
   <si>
     <t>mega sloper</t>
   </si>
@@ -97,7 +98,7 @@
     <t>Non-Random</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Link</t>
   </si>
   <si>
     <t>Odyssey</t>
@@ -119,6 +120,9 @@
   </si>
   <si>
     <t>Boomerang</t>
+  </si>
+  <si>
+    <t>wtf lol</t>
   </si>
   <si>
     <t>Odyssey FB</t>
@@ -220,9 +224,6 @@
     <t>Arcane</t>
   </si>
   <si>
-    <t>VAR</t>
-  </si>
-  <si>
     <t>Proportion</t>
   </si>
   <si>
@@ -231,12 +232,51 @@
   <si>
     <t>Use Random colours?</t>
   </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>Superstar</t>
+  </si>
+  <si>
+    <t>Elliot Master</t>
+  </si>
+  <si>
+    <t>Thunderbirds</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>Golden Leaves</t>
+  </si>
+  <si>
+    <t>Borderline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Jolly Jumper</t>
+  </si>
+  <si>
+    <t>Lucha Libre</t>
+  </si>
+  <si>
+    <t>Creature of Comfort</t>
+  </si>
+  <si>
+    <t>Electric Flavor</t>
+  </si>
+  <si>
+    <t>Damage Control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -245,6 +285,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="1" formatCode="0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -254,7 +295,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715360988" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715364026" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -269,7 +310,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715360988" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715364026" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -278,7 +319,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,7 +332,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="50" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -302,7 +343,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="100" fgClr="00007F7F" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00007F7F" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -313,7 +354,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="75" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="75" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -324,7 +365,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="50" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -335,7 +376,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="63" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="63" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -346,7 +387,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="0" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="0" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -357,7 +398,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="50" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -368,7 +409,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -379,13 +420,35 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715360988" type="1" fgLvl="50" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -401,7 +464,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -420,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -439,7 +502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -458,7 +521,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -477,7 +540,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -496,7 +559,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -515,7 +578,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -534,7 +597,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -553,7 +616,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
         </ext>
       </extLst>
     </border>
@@ -572,7 +635,49 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715360988"/>
+          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1715364026">
+            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1715364026">
+            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
         </ext>
       </extLst>
     </border>
@@ -596,10 +701,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715360988" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1715364026" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715360988" count="6">
+      <pm:colors xmlns:pm="smNativeData" id="1715364026" count="6">
         <pm:color name="Color 24" rgb="808080"/>
         <pm:color name="Color 25" rgb="FFFF40"/>
         <pm:color name="Color 26" rgb="80BF80"/>
@@ -691,22 +796,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>179</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>378</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +900,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1715360988" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1715364026" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -877,22 +982,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.15228180009418</c:v>
+                  <c:v>3.43764182731989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.66241507607572</c:v>
+                  <c:v>4.27036747314776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.887951578919622</c:v>
+                  <c:v>2.2432468400241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.45415710889521</c:v>
+                  <c:v>3.64301741784258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.52950421824725</c:v>
+                  <c:v>2.06336916574488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.31369021776803</c:v>
+                  <c:v>4.34235727592078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +1086,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1715360988" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1715364026" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -1308,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:AD72"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="Q1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView view="normal" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -1490,7 +1595,7 @@
       </c>
       <c r="AC2">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>2</v>
@@ -1557,7 +1662,7 @@
       </c>
       <c r="AC3">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -1596,11 +1701,11 @@
       <c r="V4" s="2"/>
       <c r="W4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=2,1,0)</f>
@@ -1620,7 +1725,7 @@
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1655,7 +1760,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=1,1,0)</f>
@@ -1667,7 +1772,7 @@
       </c>
       <c r="Z5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=4,1,0)</f>
@@ -1736,11 +1841,11 @@
       </c>
       <c r="Z6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=5,1,0)</f>
@@ -1819,7 +1924,7 @@
       </c>
       <c r="AC7">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1858,7 +1963,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=1,1,0)</f>
@@ -1874,7 +1979,7 @@
       </c>
       <c r="AA8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=5,1,0)</f>
@@ -1882,7 +1987,7 @@
       </c>
       <c r="AC8">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1943,13 +2048,16 @@
       </c>
       <c r="AC9">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1985,7 +2093,7 @@
       </c>
       <c r="Z10" s="1">
         <f>IF(IF(Summary!$S$21,AC10,AD10)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
         <f>IF(IF(Summary!$S$21,AC10,AD10)=4,1,0)</f>
@@ -1993,11 +2101,11 @@
       </c>
       <c r="AB10" s="1">
         <f>IF(IF(Summary!$S$21,AC10,AD10)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
         <v>5</v>
@@ -2005,7 +2113,7 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2048,7 +2156,7 @@
       </c>
       <c r="X11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=2,1,0)</f>
@@ -2060,7 +2168,7 @@
       </c>
       <c r="AA11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=5,1,0)</f>
@@ -2068,7 +2176,7 @@
       </c>
       <c r="AC11">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="n">
         <v>4</v>
@@ -2076,7 +2184,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2127,7 +2235,7 @@
       </c>
       <c r="AC12">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
@@ -2135,7 +2243,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2174,7 +2282,7 @@
       </c>
       <c r="Z13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=4,1,0)</f>
@@ -2182,11 +2290,11 @@
       </c>
       <c r="AB13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>5</v>
@@ -2194,7 +2302,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2221,11 +2329,11 @@
       <c r="V14" s="2"/>
       <c r="W14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=2,1,0)</f>
@@ -2245,7 +2353,7 @@
       </c>
       <c r="AC14">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2253,7 +2361,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>2</v>
@@ -2288,11 +2396,11 @@
       </c>
       <c r="Y15" s="1">
         <f>IF(IF(Summary!$S$21,AC15,AD15)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <f>IF(IF(Summary!$S$21,AC15,AD15)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
         <f>IF(IF(Summary!$S$21,AC15,AD15)=4,1,0)</f>
@@ -2304,7 +2412,7 @@
       </c>
       <c r="AC15">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
@@ -2312,7 +2420,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>4</v>
@@ -2341,7 +2449,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="1">
         <f>IF(IF(Summary!$S$21,AC16,AD16)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <f>IF(IF(Summary!$S$21,AC16,AD16)=1,1,0)</f>
@@ -2353,7 +2461,7 @@
       </c>
       <c r="Z16" s="1">
         <f>IF(IF(Summary!$S$21,AC16,AD16)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1">
         <f>IF(IF(Summary!$S$21,AC16,AD16)=4,1,0)</f>
@@ -2365,7 +2473,7 @@
       </c>
       <c r="AC16">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD16" t="n">
         <v>3</v>
@@ -2373,7 +2481,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -2426,7 +2534,7 @@
       </c>
       <c r="AC17">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD17" t="n">
         <v>4</v>
@@ -2434,7 +2542,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2473,7 +2581,7 @@
       </c>
       <c r="Z18" s="1">
         <f>IF(IF(Summary!$S$21,AC18,AD18)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="1">
         <f>IF(IF(Summary!$S$21,AC18,AD18)=4,1,0)</f>
@@ -2481,11 +2589,11 @@
       </c>
       <c r="AB18" s="1">
         <f>IF(IF(Summary!$S$21,AC18,AD18)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
@@ -2493,7 +2601,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2520,7 +2628,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=1,1,0)</f>
@@ -2528,7 +2636,7 @@
       </c>
       <c r="Y19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=3,1,0)</f>
@@ -2552,7 +2660,7 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="n">
@@ -2589,7 +2697,7 @@
       </c>
       <c r="Y20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=3,1,0)</f>
@@ -2601,7 +2709,7 @@
       </c>
       <c r="AB20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <f aca="1">RANDBETWEEN(0,5)</f>
@@ -2613,7 +2721,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="n">
@@ -2656,11 +2764,11 @@
       </c>
       <c r="Z21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=5,1,0)</f>
@@ -2676,7 +2784,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2711,7 +2819,7 @@
       </c>
       <c r="Y22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=3,1,0)</f>
@@ -2719,7 +2827,7 @@
       </c>
       <c r="AA22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=5,1,0)</f>
@@ -2735,7 +2843,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2770,7 +2878,7 @@
       </c>
       <c r="Y23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=3,1,0)</f>
@@ -2782,11 +2890,11 @@
       </c>
       <c r="AB23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -2794,30 +2902,30 @@
     </row>
     <row r="24" spans="23:28">
       <c r="W24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2827,25 +2935,25 @@
       </c>
       <c r="B28" s="3">
         <f t="array" ref="B28:V33">MMULT(B38:W43,B51:V72)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
       <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -2857,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -2878,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T28" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U28" s="3">
         <v>0</v>
@@ -2891,7 +2999,7 @@
       </c>
       <c r="W28">
         <f>SUM(B28:V28)</f>
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2912,28 +3020,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>10</v>
@@ -2951,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2964,7 +3072,7 @@
       </c>
       <c r="W29">
         <f>SUM(B29:V29)</f>
-        <v>190</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2973,13 +3081,13 @@
         <v>1018</v>
       </c>
       <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
       <c r="D30" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3024,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -3033,11 +3141,11 @@
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <f>SUM(B30:V30)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3046,14 +3154,14 @@
         <v>9010</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
@@ -3064,28 +3172,28 @@
         <v>1</v>
       </c>
       <c r="H31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -3106,11 +3214,11 @@
         <v>2</v>
       </c>
       <c r="V31" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W31">
         <f>SUM(B31:V31)</f>
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3122,43 +3230,43 @@
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -3173,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -3183,7 +3291,7 @@
       </c>
       <c r="W32">
         <f>SUM(B32:V32)</f>
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3195,73 +3303,73 @@
         <v>0</v>
       </c>
       <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>11</v>
       </c>
       <c r="W33">
         <f>SUM(B33:V33)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <f>SUM(B2:B23)</f>
@@ -3361,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3373,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3391,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -3406,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3429,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3450,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3459,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3530,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3542,19 +3650,19 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:23">
@@ -3568,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3583,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3592,22 +3700,22 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3616,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3639,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3654,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3684,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -3719,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3728,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3743,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3758,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -5653,11 +5761,758 @@
         <v>2</v>
       </c>
     </row>
+    <row r="79" spans="2:9">
+      <c r="B79" t="n">
+        <v>9005</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5015</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E79" t="n">
+        <v>9010</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4008</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3020</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="1">
+        <f>IF(IF(Summary!$S$21,H80,I80)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <f>IF(IF(Summary!$S$21,H80,I80)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <f>IF(IF(Summary!$S$21,H80,I80)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <f>IF(IF(Summary!$S$21,H80,I80)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <f>IF(IF(Summary!$S$21,H80,I80)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <f>IF(IF(Summary!$S$21,H80,I80)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1">
+        <f>IF(IF(Summary!$S$21,H81,I81)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <f>IF(IF(Summary!$S$21,H81,I81)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f>IF(IF(Summary!$S$21,H81,I81)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <f>IF(IF(Summary!$S$21,H81,I81)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <f>IF(IF(Summary!$S$21,H81,I81)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <f>IF(IF(Summary!$S$21,H81,I81)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="1">
+        <f>IF(IF(Summary!$S$21,H82,I82)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <f>IF(IF(Summary!$S$21,H82,I82)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <f>IF(IF(Summary!$S$21,H82,I82)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <f>IF(IF(Summary!$S$21,H82,I82)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <f>IF(IF(Summary!$S$21,H82,I82)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <f>IF(IF(Summary!$S$21,H82,I82)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1">
+        <f>IF(IF(Summary!$S$21,H83,I83)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <f>IF(IF(Summary!$S$21,H83,I83)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <f>IF(IF(Summary!$S$21,H83,I83)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <f>IF(IF(Summary!$S$21,H83,I83)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <f>IF(IF(Summary!$S$21,H83,I83)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <f>IF(IF(Summary!$S$21,H83,I83)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="1">
+        <f>IF(IF(Summary!$S$21,H84,I84)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <f>IF(IF(Summary!$S$21,H84,I84)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <f>IF(IF(Summary!$S$21,H84,I84)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <f>IF(IF(Summary!$S$21,H84,I84)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <f>IF(IF(Summary!$S$21,H84,I84)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <f>IF(IF(Summary!$S$21,H84,I84)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="1">
+        <f>IF(IF(Summary!$S$21,H85,I85)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <f>IF(IF(Summary!$S$21,H85,I85)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f>IF(IF(Summary!$S$21,H85,I85)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <f>IF(IF(Summary!$S$21,H85,I85)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <f>IF(IF(Summary!$S$21,H85,I85)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <f>IF(IF(Summary!$S$21,H85,I85)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="1">
+        <f>IF(IF(Summary!$S$21,H86,I86)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <f>IF(IF(Summary!$S$21,H86,I86)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <f>IF(IF(Summary!$S$21,H86,I86)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <f>IF(IF(Summary!$S$21,H86,I86)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <f>IF(IF(Summary!$S$21,H86,I86)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <f>IF(IF(Summary!$S$21,H86,I86)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="1">
+        <f>IF(IF(Summary!$S$21,H87,I87)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <f>IF(IF(Summary!$S$21,H87,I87)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <f>IF(IF(Summary!$S$21,H87,I87)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <f>IF(IF(Summary!$S$21,H87,I87)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <f>IF(IF(Summary!$S$21,H87,I87)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <f>IF(IF(Summary!$S$21,H87,I87)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="1">
+        <f>IF(IF(Summary!$S$21,H88,I88)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <f>IF(IF(Summary!$S$21,H88,I88)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <f>IF(IF(Summary!$S$21,H88,I88)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <f>IF(IF(Summary!$S$21,H88,I88)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <f>IF(IF(Summary!$S$21,H88,I88)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <f>IF(IF(Summary!$S$21,H88,I88)=5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="1">
+        <f>IF(IF(Summary!$S$21,H89,I89)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <f>IF(IF(Summary!$S$21,H89,I89)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <f>IF(IF(Summary!$S$21,H89,I89)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <f>IF(IF(Summary!$S$21,H89,I89)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <f>IF(IF(Summary!$S$21,H89,I89)=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <f>IF(IF(Summary!$S$21,H89,I89)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="1">
+        <f>IF(IF(Summary!$S$21,H90,I90)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <f>IF(IF(Summary!$S$21,H90,I90)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <f>IF(IF(Summary!$S$21,H90,I90)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <f>IF(IF(Summary!$S$21,H90,I90)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <f>IF(IF(Summary!$S$21,H90,I90)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <f>IF(IF(Summary!$S$21,H90,I90)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="1">
+        <f>IF(IF(Summary!$S$21,H91,I91)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <f>IF(IF(Summary!$S$21,H91,I91)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <f>IF(IF(Summary!$S$21,H91,I91)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <f>IF(IF(Summary!$S$21,H91,I91)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <f>IF(IF(Summary!$S$21,H91,I91)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f>IF(IF(Summary!$S$21,H91,I91)=5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="1">
+        <f>IF(IF(Summary!$S$21,H92,I92)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <f>IF(IF(Summary!$S$21,H92,I92)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <f>IF(IF(Summary!$S$21,H92,I92)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <f>IF(IF(Summary!$S$21,H92,I92)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <f>IF(IF(Summary!$S$21,H92,I92)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <f>IF(IF(Summary!$S$21,H92,I92)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="1">
+        <f>IF(IF(Summary!$S$21,H93,I93)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <f>IF(IF(Summary!$S$21,H93,I93)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <f>IF(IF(Summary!$S$21,H93,I93)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <f>IF(IF(Summary!$S$21,H93,I93)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <f>IF(IF(Summary!$S$21,H93,I93)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <f>IF(IF(Summary!$S$21,H93,I93)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="1">
+        <f>IF(IF(Summary!$S$21,H94,I94)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <f>IF(IF(Summary!$S$21,H94,I94)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <f>IF(IF(Summary!$S$21,H94,I94)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <f>IF(IF(Summary!$S$21,H94,I94)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <f>IF(IF(Summary!$S$21,H94,I94)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <f>IF(IF(Summary!$S$21,H94,I94)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="1">
+        <f>IF(IF(Summary!$S$21,H95,I95)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <f>IF(IF(Summary!$S$21,H95,I95)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <f>IF(IF(Summary!$S$21,H95,I95)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <f>IF(IF(Summary!$S$21,H95,I95)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <f>IF(IF(Summary!$S$21,H95,I95)=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <f>IF(IF(Summary!$S$21,H95,I95)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="1">
+        <f>IF(IF(Summary!$S$21,H96,I96)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <f>IF(IF(Summary!$S$21,H96,I96)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <f>IF(IF(Summary!$S$21,H96,I96)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <f>IF(IF(Summary!$S$21,H96,I96)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <f>IF(IF(Summary!$S$21,H96,I96)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <f>IF(IF(Summary!$S$21,H96,I96)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="1">
+        <f>IF(IF(Summary!$S$21,H97,I97)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <f>IF(IF(Summary!$S$21,H97,I97)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <f>IF(IF(Summary!$S$21,H97,I97)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <f>IF(IF(Summary!$S$21,H97,I97)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <f>IF(IF(Summary!$S$21,H97,I97)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <f>IF(IF(Summary!$S$21,H97,I97)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="1">
+        <f>IF(IF(Summary!$S$21,H98,I98)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <f>IF(IF(Summary!$S$21,H98,I98)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <f>IF(IF(Summary!$S$21,H98,I98)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <f>IF(IF(Summary!$S$21,H98,I98)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <f>IF(IF(Summary!$S$21,H98,I98)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <f>IF(IF(Summary!$S$21,H98,I98)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="1">
+        <f>IF(IF(Summary!$S$21,H99,I99)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <f>IF(IF(Summary!$S$21,H99,I99)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <f>IF(IF(Summary!$S$21,H99,I99)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <f>IF(IF(Summary!$S$21,H99,I99)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <f>IF(IF(Summary!$S$21,H99,I99)=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <f>IF(IF(Summary!$S$21,H99,I99)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="1">
+        <f>IF(IF(Summary!$S$21,H100,I100)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <f>IF(IF(Summary!$S$21,H100,I100)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <f>IF(IF(Summary!$S$21,H100,I100)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <f>IF(IF(Summary!$S$21,H100,I100)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <f>IF(IF(Summary!$S$21,H100,I100)=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <f>IF(IF(Summary!$S$21,H100,I100)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="1">
+        <f>IF(IF(Summary!$S$21,H101,I101)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <f>IF(IF(Summary!$S$21,H101,I101)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <f>IF(IF(Summary!$S$21,H101,I101)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <f>IF(IF(Summary!$S$21,H101,I101)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <f>IF(IF(Summary!$S$21,H101,I101)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <f>IF(IF(Summary!$S$21,H101,I101)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715360988" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5666,14 +6521,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715360988" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5686,8 +6541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="U1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -5806,7 +6661,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>12</v>
@@ -5837,11 +6692,11 @@
       <c r="V2" s="4"/>
       <c r="W2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=2,1,0)</f>
@@ -5861,7 +6716,7 @@
       </c>
       <c r="AC2">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5869,7 +6724,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="n">
@@ -5916,7 +6771,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=1,1,0)</f>
@@ -5936,11 +6791,11 @@
       </c>
       <c r="AB3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>5</v>
@@ -5948,7 +6803,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>6</v>
@@ -5983,7 +6838,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=1,1,0)</f>
@@ -5991,7 +6846,7 @@
       </c>
       <c r="Y4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=3,1,0)</f>
@@ -6007,7 +6862,7 @@
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
@@ -6015,7 +6870,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6050,7 +6905,7 @@
       </c>
       <c r="X5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=2,1,0)</f>
@@ -6062,7 +6917,7 @@
       </c>
       <c r="AA5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=5,1,0)</f>
@@ -6070,7 +6925,7 @@
       </c>
       <c r="AC5">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="n">
         <v>4</v>
@@ -6078,27 +6933,27 @@
     </row>
     <row r="6" spans="23:28">
       <c r="W6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="23:23">
       <c r="W7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -6107,46 +6962,46 @@
       </c>
       <c r="B8" s="3">
         <f t="array" ref="B8:V13">MMULT(A21:D26,A28:U31)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -6164,14 +7019,14 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
       <c r="W8">
         <f>SUM(B8:V8)</f>
-        <v>243</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -6179,13 +7034,13 @@
         <v>5015</v>
       </c>
       <c r="B9" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -6197,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -6212,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -6243,7 +7098,7 @@
       </c>
       <c r="W9">
         <f>SUM(B9:V9)</f>
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -6251,22 +7106,22 @@
         <v>1018</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -6315,7 +7170,7 @@
       </c>
       <c r="W10">
         <f>SUM(B10:V10)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -6413,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -6428,13 +7283,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -6459,7 +7314,7 @@
       </c>
       <c r="W12">
         <f>SUM(B12:V12)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -6470,43 +7325,43 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -6524,19 +7379,19 @@
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
       </c>
       <c r="W13">
         <f>SUM(B13:V13)</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B5)</f>
@@ -6629,19 +7484,19 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
         <f t="array" ref="A21:D26">TRANSPOSE(W2:AB5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6649,7 +7504,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6658,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6669,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6700,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6708,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6719,7 +7574,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -7070,7 +7925,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715360988" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7079,14 +7934,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715360988" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7099,8 +7954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:AI91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="V1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView view="normal" zoomScale="130" workbookViewId="0">
+      <selection activeCell="R137" sqref="R137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -7219,7 +8074,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7252,7 +8107,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=1,1,0)</f>
@@ -7268,7 +8123,7 @@
       </c>
       <c r="AA2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=5,1,0)</f>
@@ -7276,7 +8131,7 @@
       </c>
       <c r="AC2">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -7284,7 +8139,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7325,11 +8180,11 @@
       </c>
       <c r="Z3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=5,1,0)</f>
@@ -7337,7 +8192,7 @@
       </c>
       <c r="AC3">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
         <v>4</v>
@@ -7345,7 +8200,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7384,7 +8239,7 @@
       </c>
       <c r="Z4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=4,1,0)</f>
@@ -7392,11 +8247,11 @@
       </c>
       <c r="AB4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>3</v>
@@ -7404,7 +8259,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7433,7 +8288,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=1,1,0)</f>
@@ -7441,7 +8296,7 @@
       </c>
       <c r="Y5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=3,1,0)</f>
@@ -7457,7 +8312,7 @@
       </c>
       <c r="AC5">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -7465,7 +8320,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7496,7 +8351,7 @@
       </c>
       <c r="X6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=2,1,0)</f>
@@ -7508,7 +8363,7 @@
       </c>
       <c r="AA6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=5,1,0)</f>
@@ -7516,7 +8371,7 @@
       </c>
       <c r="AC6">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -7524,7 +8379,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7563,11 +8418,11 @@
       </c>
       <c r="Y7" s="1">
         <f>IF(IF(Summary!$S$21,AC7,AD7)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <f>IF(IF(Summary!$S$21,AC7,AD7)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
         <f>IF(IF(Summary!$S$21,AC7,AD7)=4,1,0)</f>
@@ -7579,7 +8434,7 @@
       </c>
       <c r="AC7">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
@@ -7625,15 +8480,15 @@
       </c>
       <c r="AA8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
         <v>5</v>
@@ -7678,7 +8533,7 @@
       </c>
       <c r="X9" s="1">
         <f>IF(IF(Summary!$S$21,AC9,AD9)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
         <f>IF(IF(Summary!$S$21,AC9,AD9)=2,1,0)</f>
@@ -7694,11 +8549,11 @@
       </c>
       <c r="AB9" s="1">
         <f>IF(IF(Summary!$S$21,AC9,AD9)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
         <v>5</v>
@@ -7765,7 +8620,7 @@
       </c>
       <c r="AC10">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD10" t="n">
         <v>2</v>
@@ -7810,11 +8665,11 @@
       <c r="V11" s="4"/>
       <c r="W11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=2,1,0)</f>
@@ -7834,7 +8689,7 @@
       </c>
       <c r="AC11">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -7879,11 +8734,11 @@
       </c>
       <c r="X12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=3,1,0)</f>
@@ -7899,7 +8754,7 @@
       </c>
       <c r="AC12">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
@@ -7946,11 +8801,11 @@
       </c>
       <c r="Z13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=5,1,0)</f>
@@ -7958,7 +8813,7 @@
       </c>
       <c r="AC13">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
@@ -7997,7 +8852,7 @@
       </c>
       <c r="X14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=2,1,0)</f>
@@ -8013,11 +8868,11 @@
       </c>
       <c r="AB14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>5</v>
@@ -8060,11 +8915,11 @@
       </c>
       <c r="Y15" s="1">
         <f>IF(IF(Summary!$S$21,AC15,AD15)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <f>IF(IF(Summary!$S$21,AC15,AD15)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
         <f>IF(IF(Summary!$S$21,AC15,AD15)=4,1,0)</f>
@@ -8076,7 +8931,7 @@
       </c>
       <c r="AC15">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
@@ -8135,7 +8990,7 @@
       </c>
       <c r="AC16">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
         <v>5</v>
@@ -8170,7 +9025,7 @@
       <c r="V17" s="4"/>
       <c r="W17" s="1">
         <f>IF(IF(Summary!$S$21,AC17,AD17)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1">
         <f>IF(IF(Summary!$S$21,AC17,AD17)=1,1,0)</f>
@@ -8190,11 +9045,11 @@
       </c>
       <c r="AB17" s="1">
         <f>IF(IF(Summary!$S$21,AC17,AD17)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -8233,7 +9088,7 @@
       </c>
       <c r="X18" s="1">
         <f>IF(IF(Summary!$S$21,AC18,AD18)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1">
         <f>IF(IF(Summary!$S$21,AC18,AD18)=2,1,0)</f>
@@ -8249,7 +9104,7 @@
       </c>
       <c r="AB18" s="1">
         <f>IF(IF(Summary!$S$21,AC18,AD18)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <f aca="1">RANDBETWEEN(0,5)</f>
@@ -8304,15 +9159,15 @@
       </c>
       <c r="AA19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="n">
         <v>4</v>
@@ -8355,7 +9210,7 @@
       </c>
       <c r="Y20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=3,1,0)</f>
@@ -8363,7 +9218,7 @@
       </c>
       <c r="AA20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=5,1,0)</f>
@@ -8371,7 +9226,7 @@
       </c>
       <c r="AC20">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
         <v>4</v>
@@ -8406,7 +9261,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=1,1,0)</f>
@@ -8418,7 +9273,7 @@
       </c>
       <c r="Z21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=4,1,0)</f>
@@ -8430,7 +9285,7 @@
       </c>
       <c r="AC21">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8489,7 +9344,7 @@
       </c>
       <c r="AC22">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
         <v>3</v>
@@ -8526,7 +9381,7 @@
       <c r="V23" s="4"/>
       <c r="W23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=1,1,0)</f>
@@ -8542,7 +9397,7 @@
       </c>
       <c r="AA23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=5,1,0)</f>
@@ -8550,7 +9405,7 @@
       </c>
       <c r="AC23">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD23" t="n">
         <v>4</v>
@@ -8609,7 +9464,7 @@
       </c>
       <c r="AC24">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -8672,7 +9527,7 @@
       </c>
       <c r="AC25">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
@@ -8715,11 +9570,11 @@
       </c>
       <c r="Y26" s="1">
         <f>IF(IF(Summary!$S$21,AC26,AD26)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <f>IF(IF(Summary!$S$21,AC26,AD26)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="1">
         <f>IF(IF(Summary!$S$21,AC26,AD26)=4,1,0)</f>
@@ -8731,7 +9586,7 @@
       </c>
       <c r="AC26">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="n">
         <v>3</v>
@@ -8790,7 +9645,7 @@
       </c>
       <c r="AC27">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -8839,11 +9694,11 @@
       </c>
       <c r="Z28" s="1">
         <f>IF(IF(Summary!$S$21,AC28,AD28)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1">
         <f>IF(IF(Summary!$S$21,AC28,AD28)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
         <f>IF(IF(Summary!$S$21,AC28,AD28)=5,1,0)</f>
@@ -8851,7 +9706,7 @@
       </c>
       <c r="AC28">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="n">
         <v>4</v>
@@ -8894,7 +9749,7 @@
       </c>
       <c r="Y29" s="1">
         <f>IF(IF(Summary!$S$21,AC29,AD29)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="1">
         <f>IF(IF(Summary!$S$21,AC29,AD29)=3,1,0)</f>
@@ -8902,7 +9757,7 @@
       </c>
       <c r="AA29" s="1">
         <f>IF(IF(Summary!$S$21,AC29,AD29)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
         <f>IF(IF(Summary!$S$21,AC29,AD29)=5,1,0)</f>
@@ -8910,7 +9765,7 @@
       </c>
       <c r="AC29">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="n">
         <v>2</v>
@@ -8949,7 +9804,7 @@
       </c>
       <c r="X30" s="1">
         <f>IF(IF(Summary!$S$21,AC30,AD30)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
         <f>IF(IF(Summary!$S$21,AC30,AD30)=2,1,0)</f>
@@ -8961,7 +9816,7 @@
       </c>
       <c r="AA30" s="1">
         <f>IF(IF(Summary!$S$21,AC30,AD30)=4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="1">
         <f>IF(IF(Summary!$S$21,AC30,AD30)=5,1,0)</f>
@@ -8969,7 +9824,7 @@
       </c>
       <c r="AC30">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>4</v>
@@ -9006,7 +9861,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="1">
         <f>IF(IF(Summary!$S$21,AC31,AD31)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
         <f>IF(IF(Summary!$S$21,AC31,AD31)=1,1,0)</f>
@@ -9018,7 +9873,7 @@
       </c>
       <c r="Z31" s="1">
         <f>IF(IF(Summary!$S$21,AC31,AD31)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="1">
         <f>IF(IF(Summary!$S$21,AC31,AD31)=4,1,0)</f>
@@ -9065,11 +9920,11 @@
       <c r="V32" s="4"/>
       <c r="W32" s="1">
         <f>IF(IF(Summary!$S$21,AC32,AD32)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
         <f>IF(IF(Summary!$S$21,AC32,AD32)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="1">
         <f>IF(IF(Summary!$S$21,AC32,AD32)=2,1,0)</f>
@@ -9089,7 +9944,7 @@
       </c>
       <c r="AC32">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -9124,11 +9979,11 @@
       <c r="V33" s="4"/>
       <c r="W33" s="1">
         <f>IF(IF(Summary!$S$21,AC33,AD33)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
         <f>IF(IF(Summary!$S$21,AC33,AD33)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <f>IF(IF(Summary!$S$21,AC33,AD33)=2,1,0)</f>
@@ -9148,7 +10003,7 @@
       </c>
       <c r="AC33">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -9195,11 +10050,11 @@
       </c>
       <c r="Z34" s="1">
         <f>IF(IF(Summary!$S$21,AC34,AD34)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="1">
         <f>IF(IF(Summary!$S$21,AC34,AD34)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1">
         <f>IF(IF(Summary!$S$21,AC34,AD34)=5,1,0)</f>
@@ -9254,7 +10109,7 @@
       </c>
       <c r="Z35" s="1">
         <f>IF(IF(Summary!$S$21,AC35,AD35)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="1">
         <f>IF(IF(Summary!$S$21,AC35,AD35)=4,1,0)</f>
@@ -9262,7 +10117,7 @@
       </c>
       <c r="AB35" s="1">
         <f>IF(IF(Summary!$S$21,AC35,AD35)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <f aca="1">RANDBETWEEN(0,5)</f>
@@ -9325,7 +10180,7 @@
       </c>
       <c r="AC36">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD36" t="n">
         <v>2</v>
@@ -9333,27 +10188,27 @@
     </row>
     <row r="37" spans="23:28">
       <c r="W37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="23:23">
       <c r="W38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -9362,7 +10217,7 @@
       </c>
       <c r="B39" s="3">
         <f t="array" ref="B39:V44">MMULT(A50:AI55,A57:U91)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -9371,37 +10226,37 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="3">
         <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
         <v>4</v>
       </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
       <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O39" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P39" s="3">
         <v>0</v>
@@ -9413,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T39" s="3">
         <v>5</v>
@@ -9434,10 +10289,10 @@
         <v>5015</v>
       </c>
       <c r="B40" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -9446,34 +10301,34 @@
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P40" s="3">
         <v>0</v>
@@ -9485,10 +10340,10 @@
         <v>0</v>
       </c>
       <c r="S40" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="3">
         <v>0</v>
@@ -9498,7 +10353,7 @@
       </c>
       <c r="W40">
         <f>SUM(B40:V40)</f>
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -9509,25 +10364,25 @@
         <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>2</v>
@@ -9539,13 +10394,13 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -9557,20 +10412,20 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41">
         <f>SUM(B41:V41)</f>
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -9578,7 +10433,7 @@
         <v>9010</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -9587,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -9605,44 +10460,44 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="T42" s="3">
+        <v>12</v>
+      </c>
+      <c r="U42" s="3">
         <v>3</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>6</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
       <c r="W42">
         <f>SUM(B42:V42)</f>
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -9650,61 +10505,61 @@
         <v>4008</v>
       </c>
       <c r="B43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>2</v>
       </c>
-      <c r="F43" s="3">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2</v>
-      </c>
-      <c r="N43" s="3">
-        <v>10</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -9714,7 +10569,7 @@
       </c>
       <c r="W43">
         <f>SUM(B43:V43)</f>
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -9722,10 +10577,10 @@
         <v>3020</v>
       </c>
       <c r="B44" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C44" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -9734,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -9749,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -9758,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -9773,10 +10628,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T44" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -9786,12 +10641,12 @@
       </c>
       <c r="W44">
         <f>SUM(B44:V44)</f>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <f>SUM(B2:B36)</f>
@@ -9884,13 +10739,13 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:35">
       <c r="A50">
         <f t="array" ref="A50:AI55">TRANSPOSE(W2:AB36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -9899,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -9917,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -9935,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -9947,13 +10802,13 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -9977,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -10009,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -10018,22 +10873,22 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -10045,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -10081,16 +10936,16 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -10113,13 +10968,13 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -10134,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -10143,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -10158,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -10176,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -10185,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -10214,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -10226,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -10244,13 +11099,13 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -10268,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -10283,13 +11138,13 @@
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -10298,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -10307,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -10318,10 +11173,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -10330,13 +11185,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -10351,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -10369,10 +11224,10 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -10381,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -10396,13 +11251,13 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -10414,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54">
         <v>0</v>
@@ -10431,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -10443,10 +11298,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -10461,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -10470,13 +11325,13 @@
         <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -10524,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -10532,7 +11387,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -13549,7 +14404,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715360988" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13558,14 +14413,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715360988" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13576,10 +14431,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView view="normal" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -13590,7 +14445,7 @@
     <col min="41" max="41" width="21.297297" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:23">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -13655,31 +14510,28 @@
         <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="n">
         <v>9005</v>
       </c>
       <c r="B2" s="7">
         <f>Cheeta!B28+BluePill!B8+XCult!B39</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7">
         <f>Cheeta!C28+BluePill!C8+XCult!C39</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7">
         <f>Cheeta!D28+BluePill!D8+XCult!D39</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7">
         <f>Cheeta!E28+BluePill!E8+XCult!E39</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7">
         <f>Cheeta!F28+BluePill!F8+XCult!F39</f>
@@ -13687,39 +14539,39 @@
       </c>
       <c r="G2" s="7">
         <f>Cheeta!G28+BluePill!G8+XCult!G39</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
         <f>Cheeta!H28+BluePill!H8+XCult!H39</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7">
         <f>Cheeta!I28+BluePill!I8+XCult!I39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
         <f>Cheeta!J28+BluePill!J8+XCult!J39</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="7">
         <f>Cheeta!K28+BluePill!K8+XCult!K39</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="7">
         <f>Cheeta!L28+BluePill!L8+XCult!L39</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M2" s="7">
         <f>Cheeta!M28+BluePill!M8+XCult!M39</f>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N2" s="7">
         <f>Cheeta!N28+BluePill!N8+XCult!N39</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O2" s="7">
         <f>Cheeta!O28+BluePill!O8+XCult!O39</f>
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="P2" s="7">
         <f>Cheeta!P28+BluePill!P8+XCult!P39</f>
@@ -13735,15 +14587,15 @@
       </c>
       <c r="S2" s="7">
         <f>Cheeta!S28+BluePill!S8+XCult!S39</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T2" s="7">
         <f>Cheeta!T28+BluePill!T8+XCult!T39</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U2" s="7">
         <f>Cheeta!U28+BluePill!U8+XCult!U39</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="7">
         <f>Cheeta!V28+BluePill!V8+XCult!V39</f>
@@ -13751,11 +14603,7 @@
       </c>
       <c r="W2">
         <f>SUM(B2:V2)</f>
-        <v>297</v>
-      </c>
-      <c r="Y2">
-        <f>VAR(W2:W7)</f>
-        <v>16442.7999999999993</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -13764,15 +14612,15 @@
       </c>
       <c r="B3" s="7">
         <f>Cheeta!B29+BluePill!B9+XCult!B40</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
         <f>Cheeta!C29+BluePill!C9+XCult!C40</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7">
         <f>Cheeta!D29+BluePill!D9+XCult!D40</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f>Cheeta!E29+BluePill!E9+XCult!E40</f>
@@ -13780,43 +14628,43 @@
       </c>
       <c r="F3" s="7">
         <f>Cheeta!F29+BluePill!F9+XCult!F40</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7">
         <f>Cheeta!G29+BluePill!G9+XCult!G40</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="7">
         <f>Cheeta!H29+BluePill!H9+XCult!H40</f>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
         <f>Cheeta!I29+BluePill!I9+XCult!I40</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="7">
         <f>Cheeta!J29+BluePill!J9+XCult!J40</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3" s="7">
         <f>Cheeta!K29+BluePill!K9+XCult!K40</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L3" s="7">
         <f>Cheeta!L29+BluePill!L9+XCult!L40</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f>Cheeta!M29+BluePill!M9+XCult!M40</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f>Cheeta!N29+BluePill!N9+XCult!N40</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O3" s="7">
         <f>Cheeta!O29+BluePill!O9+XCult!O40</f>
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="P3" s="7">
         <f>Cheeta!P29+BluePill!P9+XCult!P40</f>
@@ -13832,11 +14680,11 @@
       </c>
       <c r="S3" s="7">
         <f>Cheeta!S29+BluePill!S9+XCult!S40</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3" s="7">
         <f>Cheeta!T29+BluePill!T9+XCult!T40</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f>Cheeta!U29+BluePill!U9+XCult!U40</f>
@@ -13848,7 +14696,7 @@
       </c>
       <c r="W3">
         <f>SUM(B3:V3)</f>
-        <v>351</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -13857,35 +14705,35 @@
       </c>
       <c r="B4" s="7">
         <f>Cheeta!B30+BluePill!B10+XCult!B41</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7">
         <f>Cheeta!C30+BluePill!C10+XCult!C41</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
         <f>Cheeta!D30+BluePill!D10+XCult!D41</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7">
         <f>Cheeta!E30+BluePill!E10+XCult!E41</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7">
         <f>Cheeta!F30+BluePill!F10+XCult!F41</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" s="7">
         <f>Cheeta!G30+BluePill!G10+XCult!G41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="7">
         <f>Cheeta!H30+BluePill!H10+XCult!H41</f>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
         <f>Cheeta!I30+BluePill!I10+XCult!I41</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <f>Cheeta!J30+BluePill!J10+XCult!J41</f>
@@ -13901,7 +14749,7 @@
       </c>
       <c r="M4" s="7">
         <f>Cheeta!M30+BluePill!M10+XCult!M41</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
         <f>Cheeta!N30+BluePill!N10+XCult!N41</f>
@@ -13909,7 +14757,7 @@
       </c>
       <c r="O4" s="7">
         <f>Cheeta!O30+BluePill!O10+XCult!O41</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7">
         <f>Cheeta!P30+BluePill!P10+XCult!P41</f>
@@ -13925,23 +14773,23 @@
       </c>
       <c r="S4" s="7">
         <f>Cheeta!S30+BluePill!S10+XCult!S41</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T4" s="7">
         <f>Cheeta!T30+BluePill!T10+XCult!T41</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7">
         <f>Cheeta!U30+BluePill!U10+XCult!U41</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7">
         <f>Cheeta!V30+BluePill!V10+XCult!V41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <f>SUM(B4:V4)</f>
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -13950,23 +14798,23 @@
       </c>
       <c r="B5" s="7">
         <f>Cheeta!B31+BluePill!B11+XCult!B42</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7">
         <f>Cheeta!C31+BluePill!C11+XCult!C42</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f>Cheeta!D31+BluePill!D11+XCult!D42</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <f>Cheeta!E31+BluePill!E11+XCult!E42</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7">
         <f>Cheeta!F31+BluePill!F11+XCult!F42</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7">
         <f>Cheeta!G31+BluePill!G11+XCult!G42</f>
@@ -13974,11 +14822,11 @@
       </c>
       <c r="H5" s="7">
         <f>Cheeta!H31+BluePill!H11+XCult!H42</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
         <f>Cheeta!I31+BluePill!I11+XCult!I42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="7">
         <f>Cheeta!J31+BluePill!J11+XCult!J42</f>
@@ -13986,7 +14834,7 @@
       </c>
       <c r="K5" s="7">
         <f>Cheeta!K31+BluePill!K11+XCult!K42</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" s="7">
         <f>Cheeta!L31+BluePill!L11+XCult!L42</f>
@@ -13994,7 +14842,7 @@
       </c>
       <c r="M5" s="7">
         <f>Cheeta!M31+BluePill!M11+XCult!M42</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
         <f>Cheeta!N31+BluePill!N11+XCult!N42</f>
@@ -14002,7 +14850,7 @@
       </c>
       <c r="O5" s="7">
         <f>Cheeta!O31+BluePill!O11+XCult!O42</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P5" s="7">
         <f>Cheeta!P31+BluePill!P11+XCult!P42</f>
@@ -14018,56 +14866,56 @@
       </c>
       <c r="S5" s="7">
         <f>Cheeta!S31+BluePill!S11+XCult!S42</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" s="7">
         <f>Cheeta!T31+BluePill!T11+XCult!T42</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U5" s="7">
         <f>Cheeta!U31+BluePill!U11+XCult!U42</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5" s="7">
         <f>Cheeta!V31+BluePill!V11+XCult!V42</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W5">
         <f>SUM(B5:V5)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="n">
         <v>4008</v>
       </c>
       <c r="B6" s="7">
         <f>Cheeta!B32+BluePill!B12+XCult!B43</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7">
         <f>Cheeta!C32+BluePill!C12+XCult!C43</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
         <f>Cheeta!D32+BluePill!D12+XCult!D43</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" s="7">
         <f>Cheeta!E32+BluePill!E12+XCult!E43</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7">
         <f>Cheeta!F32+BluePill!F12+XCult!F43</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7">
         <f>Cheeta!G32+BluePill!G12+XCult!G43</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <f>Cheeta!H32+BluePill!H12+XCult!H43</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
         <f>Cheeta!I32+BluePill!I12+XCult!I43</f>
@@ -14075,27 +14923,27 @@
       </c>
       <c r="J6" s="7">
         <f>Cheeta!J32+BluePill!J12+XCult!J43</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" s="7">
         <f>Cheeta!K32+BluePill!K12+XCult!K43</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L6" s="7">
         <f>Cheeta!L32+BluePill!L12+XCult!L43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="7">
         <f>Cheeta!M32+BluePill!M12+XCult!M43</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
         <f>Cheeta!N32+BluePill!N12+XCult!N43</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f>Cheeta!O32+BluePill!O12+XCult!O43</f>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="P6" s="7">
         <f>Cheeta!P32+BluePill!P12+XCult!P43</f>
@@ -14111,11 +14959,11 @@
       </c>
       <c r="S6" s="7">
         <f>Cheeta!S32+BluePill!S12+XCult!S43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="7">
         <f>Cheeta!T32+BluePill!T12+XCult!T43</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U6" s="7">
         <f>Cheeta!U32+BluePill!U12+XCult!U43</f>
@@ -14127,91 +14975,7 @@
       </c>
       <c r="W6">
         <f>SUM(B6:V6)</f>
-        <v>123</v>
-      </c>
-      <c r="AB6">
-        <f>VAR(B2:B7)</f>
-        <v>59.4666666666666757</v>
-      </c>
-      <c r="AC6">
-        <f>VAR(C2:C7)</f>
-        <v>13.3666666666666654</v>
-      </c>
-      <c r="AD6">
-        <f>VAR(D2:D7)</f>
-        <v>21.1000000000000014</v>
-      </c>
-      <c r="AE6">
-        <f>VAR(E2:E7)</f>
-        <v>6.29999999999999982</v>
-      </c>
-      <c r="AF6">
-        <f>VAR(F2:F7)</f>
-        <v>78.6666666666666572</v>
-      </c>
-      <c r="AG6">
-        <f>VAR(G2:G7)</f>
-        <v>9.06666666666666643</v>
-      </c>
-      <c r="AH6">
-        <f>VAR(H2:H7)</f>
-        <v>165.199999999999989</v>
-      </c>
-      <c r="AI6">
-        <f>VAR(I2:I7)</f>
-        <v>7.36666666666666536</v>
-      </c>
-      <c r="AJ6">
-        <f>VAR(J2:J7)</f>
-        <v>4.26666666666666661</v>
-      </c>
-      <c r="AK6">
-        <f>VAR(K2:K7)</f>
-        <v>14.2666666666666657</v>
-      </c>
-      <c r="AL6">
-        <f>VAR(L2:L7)</f>
-        <v>100.166666666666657</v>
-      </c>
-      <c r="AM6">
-        <f>VAR(M2:M7)</f>
-        <v>912.666666666666401</v>
-      </c>
-      <c r="AN6">
-        <f>VAR(N2:N7)</f>
-        <v>77.5</v>
-      </c>
-      <c r="AO6">
-        <f>VAR(O2:O7)</f>
-        <v>2017.36666666666679</v>
-      </c>
-      <c r="AP6">
-        <f>VAR(P2:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <f>VAR(Q2:Q7)</f>
-        <v>42.6666666666666714</v>
-      </c>
-      <c r="AR6">
-        <f>VAR(R2:R7)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AS6">
-        <f>VAR(S2:S7)</f>
-        <v>32.1666666666666643</v>
-      </c>
-      <c r="AT6">
-        <f>VAR(T2:T7)</f>
-        <v>7.36666666666666536</v>
-      </c>
-      <c r="AU6">
-        <f>VAR(U2:U7)</f>
-        <v>3.10000000000000009</v>
-      </c>
-      <c r="AV6">
-        <f>VAR(V2:V7)</f>
-        <v>19.3666666666666671</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -14220,31 +14984,31 @@
       </c>
       <c r="B7" s="7">
         <f>Cheeta!B33+BluePill!B13+XCult!B44</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7">
         <f>Cheeta!C33+BluePill!C13+XCult!C44</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
         <f>Cheeta!D33+BluePill!D13+XCult!D44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f>Cheeta!E33+BluePill!E13+XCult!E44</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <f>Cheeta!F33+BluePill!F13+XCult!F44</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7">
         <f>Cheeta!G33+BluePill!G13+XCult!G44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="7">
         <f>Cheeta!H33+BluePill!H13+XCult!H44</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
         <f>Cheeta!I33+BluePill!I13+XCult!I44</f>
@@ -14252,27 +15016,27 @@
       </c>
       <c r="J7" s="7">
         <f>Cheeta!J33+BluePill!J13+XCult!J44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="7">
         <f>Cheeta!K33+BluePill!K13+XCult!K44</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" s="7">
         <f>Cheeta!L33+BluePill!L13+XCult!L44</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <f>Cheeta!M33+BluePill!M13+XCult!M44</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
         <f>Cheeta!N33+BluePill!N13+XCult!N44</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O7" s="7">
         <f>Cheeta!O33+BluePill!O13+XCult!O44</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7">
         <f>Cheeta!P33+BluePill!P13+XCult!P44</f>
@@ -14288,28 +15052,28 @@
       </c>
       <c r="S7" s="7">
         <f>Cheeta!S33+BluePill!S13+XCult!S44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="7">
         <f>Cheeta!T33+BluePill!T13+XCult!T44</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f>Cheeta!U33+BluePill!U13+XCult!U44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" s="7">
         <f>Cheeta!V33+BluePill!V13+XCult!V44</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <f>SUM(B7:V7)</f>
-        <v>31</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
@@ -14400,7 +15164,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -14488,17 +15252,13 @@
         <f>V8/$W$8</f>
         <v>0.0131313131313131293</v>
       </c>
-      <c r="AB9">
-        <f>AVERAGE(AB6:AV6)</f>
-        <v>171.09206349206346</v>
-      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:25">
+    <row r="11" spans="2:22">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -14562,29 +15322,26 @@
       <c r="V11" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="n">
         <v>9005</v>
       </c>
       <c r="B12" s="7">
         <f t="array" ref="B12:B17">B2:B7/IF(B8=0,1,B8)</f>
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="C12" s="7">
         <f t="array" ref="C12:C17">C2:C7/IF(C8=0,1,C8)</f>
-        <v>0.324324324324324342</v>
+        <v>0.189189189189189211</v>
       </c>
       <c r="D12" s="7">
         <f t="array" ref="D12:D17">D2:D7/IF(D8=0,1,D8)</f>
-        <v>0.111111111111111116</v>
+        <v>0.444444444444444464</v>
       </c>
       <c r="E12" s="7">
         <f t="array" ref="E12:E17">E2:E7/IF(E8=0,1,E8)</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="7">
         <f t="array" ref="F12:F17">F2:F7/IF(F8=0,1,F8)</f>
@@ -14592,39 +15349,39 @@
       </c>
       <c r="G12" s="7">
         <f t="array" ref="G12:G17">G2:G7/IF(G8=0,1,G8)</f>
-        <v>0.571428571428571352</v>
+        <v>0.142857142857142838</v>
       </c>
       <c r="H12" s="7">
         <f t="array" ref="H12:H17">H2:H7/IF(H8=0,1,H8)</f>
-        <v>0.222222222222222232</v>
+        <v>0.25</v>
       </c>
       <c r="I12" s="7">
         <f t="array" ref="I12:I17">I2:I7/IF(I8=0,1,I8)</f>
-        <v>0</v>
+        <v>0.181818181818181834</v>
       </c>
       <c r="J12" s="7">
         <f t="array" ref="J12:J17">J2:J7/IF(J8=0,1,J8)</f>
-        <v>0.357142857142857162</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
         <f t="array" ref="K12:K17">K2:K7/IF(K8=0,1,K8)</f>
-        <v>0.178571428571428577</v>
+        <v>0.142857142857142838</v>
       </c>
       <c r="L12" s="7">
         <f t="array" ref="L12:L17">L2:L7/IF(L8=0,1,L8)</f>
-        <v>0.806451612903225801</v>
+        <v>0.161290322580645151</v>
       </c>
       <c r="M12" s="7">
         <f t="array" ref="M12:M17">M2:M7/IF(M8=0,1,M8)</f>
-        <v>0.256578947368421062</v>
+        <v>0.440789473684210531</v>
       </c>
       <c r="N12" s="7">
         <f t="array" ref="N12:N17">N2:N7/IF(N8=0,1,N8)</f>
-        <v>0.444444444444444464</v>
+        <v>0.222222222222222232</v>
       </c>
       <c r="O12" s="7">
         <f t="array" ref="O12:O17">O2:O7/IF(O8=0,1,O8)</f>
-        <v>0.315068493150684903</v>
+        <v>0.136986301369863006</v>
       </c>
       <c r="P12" s="7">
         <f t="array" ref="P12:P17">P2:P7/IF(P8=0,1,P8)</f>
@@ -14640,15 +15397,15 @@
       </c>
       <c r="S12" s="7">
         <f t="array" ref="S12:S17">S2:S7/IF(S8=0,1,S8)</f>
-        <v>0.51724137931034484</v>
+        <v>0.103448275862068972</v>
       </c>
       <c r="T12" s="7">
         <f t="array" ref="T12:T17">T2:T7/IF(T8=0,1,T8)</f>
-        <v>0.217391304347826075</v>
+        <v>0.434782608695652151</v>
       </c>
       <c r="U12" s="7">
         <f t="array" ref="U12:U17">U2:U7/IF(U8=0,1,U8)</f>
-        <v>0.444444444444444464</v>
+        <v>0</v>
       </c>
       <c r="V12" s="7">
         <f t="array" ref="V12:V17">V2:V7/IF(V8=0,1,V8)</f>
@@ -14656,11 +15413,7 @@
       </c>
       <c r="W12">
         <f>SUM(B12:V12)</f>
-        <v>5.62837766250903737</v>
-      </c>
-      <c r="Y12">
-        <f>VAR(W12:W17)</f>
-        <v>5.65766416030152008</v>
+        <v>3.43764182731989409</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14668,46 +15421,46 @@
         <v>5015</v>
       </c>
       <c r="B13" s="7">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="7">
-        <v>0.189189189189189211</v>
+        <v>0.108108108108108114</v>
       </c>
       <c r="D13" s="7">
-        <v>0.444444444444444464</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>0.543478260869565233</v>
+        <v>0.152173913043478271</v>
       </c>
       <c r="G13" s="7">
-        <v>0.142857142857142838</v>
+        <v>0.214285714285714279</v>
       </c>
       <c r="H13" s="7">
-        <v>0.416666666666666696</v>
+        <v>0.0972222222222222143</v>
       </c>
       <c r="I13" s="7">
-        <v>0.636363636363636331</v>
+        <v>0.454545454545454497</v>
       </c>
       <c r="J13" s="7">
-        <v>0.285714285714285676</v>
+        <v>0.428571428571428559</v>
       </c>
       <c r="K13" s="7">
-        <v>0.285714285714285676</v>
+        <v>0.178571428571428577</v>
       </c>
       <c r="L13" s="7">
-        <v>0.193548387096774199</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>0.513157894736842124</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0.333333333333333304</v>
+        <v>0.222222222222222232</v>
       </c>
       <c r="O13" s="7">
-        <v>0.309589041095890405</v>
+        <v>0.123287671232876717</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -14719,10 +15472,10 @@
         <v>1</v>
       </c>
       <c r="S13" s="7">
-        <v>0.206896551724137945</v>
+        <v>0.24137931034482758</v>
       </c>
       <c r="T13" s="7">
-        <v>0.0434782608695652151</v>
+        <v>0</v>
       </c>
       <c r="U13" s="7">
         <v>0</v>
@@ -14732,7 +15485,7 @@
       </c>
       <c r="W13">
         <f>SUM(B13:V13)</f>
-        <v>6.99443138067575809</v>
+        <v>4.27036747314776122</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -14740,28 +15493,28 @@
         <v>1018</v>
       </c>
       <c r="B14" s="7">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="C14" s="7">
-        <v>0.135135135135135132</v>
+        <v>0.405405405405405439</v>
       </c>
       <c r="D14" s="7">
-        <v>0.29629629629629628</v>
+        <v>0.0740740740740740655</v>
       </c>
       <c r="E14" s="7">
-        <v>0.333333333333333304</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="7">
-        <v>0.0869565217391304301</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>0.214285714285714279</v>
       </c>
       <c r="H14" s="7">
-        <v>0.31944444444444442</v>
+        <v>0.138888888888888884</v>
       </c>
       <c r="I14" s="7">
-        <v>0.181818181818181834</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
         <v>0.142857142857142838</v>
@@ -14773,13 +15526,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>0.026315789473684208</v>
+        <v>0.0394736842105263186</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>0.112328767123287676</v>
+        <v>0.134246575342465757</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -14791,20 +15544,20 @@
         <v>0</v>
       </c>
       <c r="S14" s="7">
-        <v>0.0689655172413793149</v>
+        <v>0.344827586206896575</v>
       </c>
       <c r="T14" s="7">
-        <v>0.217391304347826075</v>
+        <v>0</v>
       </c>
       <c r="U14" s="7">
-        <v>0.333333333333333304</v>
+        <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="W14">
         <f>SUM(B14:V14)</f>
-        <v>2.37560433857174624</v>
+        <v>2.24324684002410013</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -14812,46 +15565,46 @@
         <v>9010</v>
       </c>
       <c r="B15" s="7">
-        <v>0.025</v>
+        <v>0.225</v>
       </c>
       <c r="C15" s="7">
-        <v>0.0540540540540540526</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>0.111111111111111116</v>
+        <v>0.0740740740740740655</v>
       </c>
       <c r="E15" s="7">
-        <v>0.133333333333333326</v>
+        <v>0.266666666666666652</v>
       </c>
       <c r="F15" s="7">
-        <v>0.108695652173913038</v>
+        <v>0.217391304347826075</v>
       </c>
       <c r="G15" s="7">
         <v>0.0714285714285714235</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>0.222222222222222232</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>0.181818181818181834</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>0.10714285714285714</v>
+        <v>0.214285714285714279</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
       </c>
       <c r="M15" s="7">
-        <v>0.0197368421052631593</v>
+        <v>0.171052631578947363</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>0.136986301369863006</v>
+        <v>0.126027397260273988</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -14863,20 +15616,20 @@
         <v>0</v>
       </c>
       <c r="S15" s="7">
-        <v>0.206896551724137945</v>
+        <v>0.103448275862068972</v>
       </c>
       <c r="T15" s="7">
-        <v>0</v>
+        <v>0.521739130434782616</v>
       </c>
       <c r="U15" s="7">
-        <v>0.222222222222222232</v>
+        <v>0.555555555555555536</v>
       </c>
       <c r="V15" s="7">
-        <v>0.15384615384615385</v>
+        <v>0.692307692307692335</v>
       </c>
       <c r="W15">
         <f>SUM(B15:V15)</f>
-        <v>1.35045365051148014</v>
+        <v>3.64301741784257693</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14884,46 +15637,46 @@
         <v>4008</v>
       </c>
       <c r="B16" s="7">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="C16" s="7">
-        <v>0.0810810810810810878</v>
+        <v>0.189189189189189211</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>0.407407407407407351</v>
       </c>
       <c r="E16" s="7">
-        <v>0.133333333333333326</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="7">
-        <v>0.17391304347826086</v>
+        <v>0.195652173913043477</v>
       </c>
       <c r="G16" s="7">
-        <v>0.214285714285714279</v>
+        <v>0.0714285714285714235</v>
       </c>
       <c r="H16" s="7">
-        <v>0.0277777777777777768</v>
+        <v>0.125</v>
       </c>
       <c r="I16" s="7">
         <v>0.181818181818181834</v>
       </c>
       <c r="J16" s="7">
-        <v>0.214285714285714279</v>
+        <v>0.0714285714285714235</v>
       </c>
       <c r="K16" s="7">
-        <v>0.357142857142857162</v>
+        <v>0.142857142857142838</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>0.0322580645161290303</v>
       </c>
       <c r="M16" s="7">
-        <v>0.184210526315789469</v>
+        <v>0.0921052631578947256</v>
       </c>
       <c r="N16" s="7">
-        <v>0.222222222222222232</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>0.126027397260273988</v>
+        <v>0.191780821917808204</v>
       </c>
       <c r="P16" s="7">
         <v>0</v>
@@ -14935,10 +15688,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <v>0</v>
+        <v>0.0689655172413793149</v>
       </c>
       <c r="T16" s="7">
-        <v>0.217391304347826075</v>
+        <v>0.0434782608695652151</v>
       </c>
       <c r="U16" s="7">
         <v>0</v>
@@ -14948,7 +15701,7 @@
       </c>
       <c r="W16">
         <f>SUM(B16:V16)</f>
-        <v>2.15848915334903202</v>
+        <v>2.06336916574488427</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -14956,46 +15709,46 @@
         <v>3020</v>
       </c>
       <c r="B17" s="7">
-        <v>0.075</v>
+        <v>0.225</v>
       </c>
       <c r="C17" s="7">
-        <v>0.216216216216216228</v>
+        <v>0.108108108108108114</v>
       </c>
       <c r="D17" s="7">
-        <v>0.0370370370370370328</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>0.133333333333333326</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>0.285714285714285676</v>
       </c>
       <c r="H17" s="7">
-        <v>0.0138888888888888884</v>
+        <v>0.166666666666666652</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>0.357142857142857162</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>0.806451612903225801</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>0.256578947368421062</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>0.555555555555555536</v>
       </c>
       <c r="O17" s="7">
-        <v>0</v>
+        <v>0.287671232876712324</v>
       </c>
       <c r="P17" s="7">
         <v>0</v>
@@ -15007,20 +15760,20 @@
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>0.13793103448275863</v>
       </c>
       <c r="T17" s="7">
-        <v>0.304347826086956541</v>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>0</v>
+        <v>0.444444444444444464</v>
       </c>
       <c r="V17" s="7">
-        <v>0.846153846153846168</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="W17">
         <f>SUM(B17:V17)</f>
-        <v>1.4926438143829448</v>
+        <v>4.34235727592078291</v>
       </c>
     </row>
     <row r="20" spans="19:19">
@@ -15029,15 +15782,15 @@
       </c>
     </row>
     <row r="21" spans="19:19">
-      <c r="S21" t="b">
-        <v>1</v>
+      <c r="S21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715360988" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15046,15 +15799,1353 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715360988" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715360988" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:AD14"/>
+  <sheetViews>
+    <sheetView view="normal" zoomScale="170" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <cols>
+    <col min="1" max="1" width="17.423423" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="n">
+        <v>9005</v>
+      </c>
+      <c r="X1" t="n">
+        <v>5015</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>9010</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4008</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <f>IF(IF(Summary!$S$21,AC2,AD2)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <f>IF(IF(Summary!$S$21,AC2,AD2)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>IF(IF(Summary!$S$21,AC2,AD2)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>IF(IF(Summary!$S$21,AC2,AD2)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>IF(IF(Summary!$S$21,AC2,AD2)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>IF(IF(Summary!$S$21,AC2,AD2)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" s="1">
+        <f>IF(IF(Summary!$S$21,AC3,AD3)=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <f>IF(IF(Summary!$S$21,AC3,AD3)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>IF(IF(Summary!$S$21,AC3,AD3)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>IF(IF(Summary!$S$21,AC3,AD3)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>IF(IF(Summary!$S$21,AC3,AD3)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>IF(IF(Summary!$S$21,AC3,AD3)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f>IF(IF(Summary!$S$21,AC4,AD4)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f>IF(IF(Summary!$S$21,AC4,AD4)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>IF(IF(Summary!$S$21,AC4,AD4)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>IF(IF(Summary!$S$21,AC4,AD4)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>IF(IF(Summary!$S$21,AC4,AD4)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>IF(IF(Summary!$S$21,AC4,AD4)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f>IF(IF(Summary!$S$21,AC5,AD5)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <f>IF(IF(Summary!$S$21,AC5,AD5)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>IF(IF(Summary!$S$21,AC5,AD5)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>IF(IF(Summary!$S$21,AC5,AD5)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>IF(IF(Summary!$S$21,AC5,AD5)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>IF(IF(Summary!$S$21,AC5,AD5)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <f>IF(IF(Summary!$S$21,AC6,AD6)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <f>IF(IF(Summary!$S$21,AC6,AD6)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>IF(IF(Summary!$S$21,AC6,AD6)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>IF(IF(Summary!$S$21,AC6,AD6)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>IF(IF(Summary!$S$21,AC6,AD6)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>IF(IF(Summary!$S$21,AC6,AD6)=5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1">
+        <f>IF(IF(Summary!$S$21,AC7,AD7)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <f>IF(IF(Summary!$S$21,AC7,AD7)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>IF(IF(Summary!$S$21,AC7,AD7)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>IF(IF(Summary!$S$21,AC7,AD7)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>IF(IF(Summary!$S$21,AC7,AD7)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>IF(IF(Summary!$S$21,AC7,AD7)=5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <f>IF(IF(Summary!$S$21,AC8,AD8)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <f>IF(IF(Summary!$S$21,AC8,AD8)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>IF(IF(Summary!$S$21,AC8,AD8)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>IF(IF(Summary!$S$21,AC8,AD8)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>IF(IF(Summary!$S$21,AC8,AD8)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>IF(IF(Summary!$S$21,AC8,AD8)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f>IF(IF(Summary!$S$21,AC9,AD9)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <f>IF(IF(Summary!$S$21,AC9,AD9)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>IF(IF(Summary!$S$21,AC9,AD9)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>IF(IF(Summary!$S$21,AC9,AD9)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>IF(IF(Summary!$S$21,AC9,AD9)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>IF(IF(Summary!$S$21,AC9,AD9)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f>IF(IF(Summary!$S$21,AC10,AD10)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <f>IF(IF(Summary!$S$21,AC10,AD10)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>IF(IF(Summary!$S$21,AC10,AD10)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>IF(IF(Summary!$S$21,AC10,AD10)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>IF(IF(Summary!$S$21,AC10,AD10)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>IF(IF(Summary!$S$21,AC10,AD10)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <f>IF(IF(Summary!$S$21,AC11,AD11)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <f>IF(IF(Summary!$S$21,AC11,AD11)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>IF(IF(Summary!$S$21,AC11,AD11)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>IF(IF(Summary!$S$21,AC11,AD11)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>IF(IF(Summary!$S$21,AC11,AD11)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>IF(IF(Summary!$S$21,AC11,AD11)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <f>IF(IF(Summary!$S$21,AC12,AD12)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f>IF(IF(Summary!$S$21,AC12,AD12)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>IF(IF(Summary!$S$21,AC12,AD12)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>IF(IF(Summary!$S$21,AC12,AD12)=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>IF(IF(Summary!$S$21,AC12,AD12)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <f>IF(IF(Summary!$S$21,AC12,AD12)=5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <f>IF(IF(Summary!$S$21,AC13,AD13)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f>IF(IF(Summary!$S$21,AC13,AD13)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>IF(IF(Summary!$S$21,AC13,AD13)=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>IF(IF(Summary!$S$21,AC13,AD13)=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>IF(IF(Summary!$S$21,AC13,AD13)=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <f>IF(IF(Summary!$S$21,AC13,AD13)=5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="11:28">
+      <c r="K14"/>
+      <c r="W14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/OrderForms/Hold distro.xlsx
+++ b/OrderForms/Hold distro.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="jacob"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cheeta" sheetId="1" r:id="rId4"/>
@@ -17,17 +17,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715364026" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715364026" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715364026" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715364026"/>
+      <pm:revision xmlns:pm="smNativeData" day="1715586469" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1715586469" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1715586469" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1715586469"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="82">
   <si>
     <t>mega sloper</t>
   </si>
@@ -271,12 +271,15 @@
   <si>
     <t>Damage Control</t>
   </si>
+  <si>
+    <t>iu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -285,7 +288,6 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="1" formatCode="0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -295,7 +297,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715364026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715586469" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -310,7 +312,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715364026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715586469" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -319,7 +321,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,7 +334,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="50" fgClr="00000000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -343,7 +345,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00007F7F" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="100" fgClr="00007F7F" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -354,7 +356,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="75" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="75" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -365,7 +367,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="50" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -376,7 +378,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="63" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="63" fgClr="00007F00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -387,7 +389,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="0" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="0" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -398,7 +400,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="50" fgClr="00FFFF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -409,46 +411,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="50" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715364026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715586469" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -464,7 +433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -483,7 +452,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -502,7 +471,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -521,7 +490,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -540,7 +509,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -559,7 +528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -578,7 +547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -597,7 +566,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -616,68 +585,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715364026">
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
+          <pm:border xmlns:pm="smNativeData" id="1715586469"/>
         </ext>
       </extLst>
     </border>
@@ -701,10 +609,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715364026" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1715586469" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715364026" count="6">
+      <pm:colors xmlns:pm="smNativeData" id="1715586469" count="6">
         <pm:color name="Color 24" rgb="808080"/>
         <pm:color name="Color 25" rgb="FFFF40"/>
         <pm:color name="Color 26" rgb="80BF80"/>
@@ -730,7 +638,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="1950" b="1" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="1950" b="1" i="0" u="none" strike="noStrike" kern="100">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -747,7 +655,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -820,28 +728,28 @@
             <c:ext xmlns:sm="smo" uri="smo">
               <sm:meanLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
               </sm:meanLine>
               <sm:minMaxLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
               </sm:minMaxLine>
               <sm:stDevLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
               </sm:stDevLine>
               <sm:trendLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
@@ -865,20 +773,11 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-us" sz="1950" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Basic Sans" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -889,18 +788,18 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-us" sz="1950" b="0" i="0" u="none" strike="noStrike">
+        <a:defRPr lang="en-us" sz="1950" b="0" i="0" u="none" strike="noStrike" kern="100">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Basic Sans"/>
+          <a:latin typeface="Basic Sans" charset="0"/>
         </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1715364026" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1715586469" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -919,7 +818,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-us" sz="1635" b="1" i="0" u="none" strike="noStrike">
+              <a:defRPr lang="en-us" sz="1635" b="1" i="0" u="none" strike="noStrike" kern="100">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -936,7 +835,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1006,28 +905,28 @@
             <c:ext xmlns:sm="smo" uri="smo">
               <sm:meanLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
               </sm:meanLine>
               <sm:minMaxLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
               </sm:minMaxLine>
               <sm:stDevLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
               </sm:stDevLine>
               <sm:trendLine>
                 <c:spPr>
-                  <a:ln>
+                  <a:ln w="9525">
                     <a:noFill/>
                   </a:ln>
                 </c:spPr>
@@ -1051,20 +950,11 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-us" sz="1635" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Basic Sans" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1075,18 +965,18 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-us" sz="1635" b="0" i="0" u="none" strike="noStrike">
+        <a:defRPr lang="en-us" sz="1635" b="0" i="0" u="none" strike="noStrike" kern="100">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:latin typeface="Basic Sans"/>
+          <a:latin typeface="Basic Sans" charset="0"/>
         </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1715364026" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1715586469" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -1415,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="Y1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -1575,11 +1465,11 @@
       </c>
       <c r="X2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <f>IF(IF(Summary!$S$21,AC2,AD2)=3,1,0)</f>
@@ -1595,10 +1485,10 @@
       </c>
       <c r="AC2">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1642,7 +1532,7 @@
       </c>
       <c r="X3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=2,1,0)</f>
@@ -1658,14 +1548,14 @@
       </c>
       <c r="AB3" s="1">
         <f>IF(IF(Summary!$S$21,AC3,AD3)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1701,7 +1591,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=1,1,0)</f>
@@ -1721,14 +1611,14 @@
       </c>
       <c r="AB4" s="1">
         <f>IF(IF(Summary!$S$21,AC4,AD4)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
         <v>5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1760,7 +1650,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=1,1,0)</f>
@@ -1772,7 +1662,7 @@
       </c>
       <c r="Z5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="1">
         <f>IF(IF(Summary!$S$21,AC5,AD5)=4,1,0)</f>
@@ -1784,10 +1674,10 @@
       </c>
       <c r="AC5">
         <f aca="1">RANDBETWEEN(0,5)</f>
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>3</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1833,7 +1723,7 @@
       </c>
       <c r="X6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=2,1,0)</f>
@@ -1841,7 +1731,7 @@
       </c>
       <c r="Z6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <f>IF(IF(Summary!$S$21,AC6,AD6)=4,1,0)</f>
@@ -1853,10 +1743,10 @@
       </c>
       <c r="AC6">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1904,7 +1794,7 @@
       </c>
       <c r="X7" s="1">
         <f>IF(IF(Summary!$S$21,AC7,AD7)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
         <f>IF(IF(Summary!$S$21,AC7,AD7)=2,1,0)</f>
@@ -1920,14 +1810,14 @@
       </c>
       <c r="AB7" s="1">
         <f>IF(IF(Summary!$S$21,AC7,AD7)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1963,7 +1853,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=1,1,0)</f>
@@ -1975,7 +1865,7 @@
       </c>
       <c r="Z8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
         <f>IF(IF(Summary!$S$21,AC8,AD8)=4,1,0)</f>
@@ -1987,10 +1877,10 @@
       </c>
       <c r="AC8">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -2036,7 +1926,7 @@
       </c>
       <c r="Z9" s="1">
         <f>IF(IF(Summary!$S$21,AC9,AD9)=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <f>IF(IF(Summary!$S$21,AC9,AD9)=4,1,0)</f>
@@ -2044,14 +1934,14 @@
       </c>
       <c r="AB9" s="1">
         <f>IF(IF(Summary!$S$21,AC9,AD9)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -2093,7 +1983,7 @@
       </c>
       <c r="Z10" s="1">
         <f>IF(IF(Summary!$S$21,AC10,AD10)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
         <f>IF(IF(Summary!$S$21,AC10,AD10)=4,1,0)</f>
@@ -2101,14 +1991,14 @@
       </c>
       <c r="AB10" s="1">
         <f>IF(IF(Summary!$S$21,AC10,AD10)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -2164,11 +2054,11 @@
       </c>
       <c r="Z11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
         <f>IF(IF(Summary!$S$21,AC11,AD11)=5,1,0)</f>
@@ -2176,10 +2066,10 @@
       </c>
       <c r="AC11">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -2211,7 +2101,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=1,1,0)</f>
@@ -2219,7 +2109,7 @@
       </c>
       <c r="Y12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <f>IF(IF(Summary!$S$21,AC12,AD12)=3,1,0)</f>
@@ -2235,10 +2125,10 @@
       </c>
       <c r="AC12">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -2282,7 +2172,7 @@
       </c>
       <c r="Z13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=4,1,0)</f>
@@ -2290,14 +2180,14 @@
       </c>
       <c r="AB13" s="1">
         <f>IF(IF(Summary!$S$21,AC13,AD13)=5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -2333,7 +2223,7 @@
       </c>
       <c r="X14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=2,1,0)</f>
@@ -2341,7 +2231,7 @@
       </c>
       <c r="Z14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="1">
         <f>IF(IF(Summary!$S$21,AC14,AD14)=4,1,0)</f>
@@ -2353,10 +2243,10 @@
       </c>
       <c r="AC14">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -2412,7 +2302,7 @@
       </c>
       <c r="AC15">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
@@ -2473,7 +2363,7 @@
       </c>
       <c r="AC16">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="n">
         <v>3</v>
@@ -2593,7 +2483,7 @@
       </c>
       <c r="AC18">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
         <v>3</v>
@@ -2628,7 +2518,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=1,1,0)</f>
@@ -2636,7 +2526,7 @@
       </c>
       <c r="Y19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <f>IF(IF(Summary!$S$21,AC19,AD19)=3,1,0)</f>
@@ -2652,10 +2542,10 @@
       </c>
       <c r="AC19">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2693,11 +2583,11 @@
       </c>
       <c r="X20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <f>IF(IF(Summary!$S$21,AC20,AD20)=3,1,0)</f>
@@ -2713,10 +2603,10 @@
       </c>
       <c r="AC20">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2756,7 +2646,7 @@
       </c>
       <c r="X21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=2,1,0)</f>
@@ -2768,7 +2658,7 @@
       </c>
       <c r="AA21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
         <f>IF(IF(Summary!$S$21,AC21,AD21)=5,1,0)</f>
@@ -2779,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2815,7 +2705,7 @@
       </c>
       <c r="X22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=2,1,0)</f>
@@ -2827,7 +2717,7 @@
       </c>
       <c r="AA22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=4,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
         <f>IF(IF(Summary!$S$21,AC22,AD22)=5,1,0)</f>
@@ -2835,10 +2725,10 @@
       </c>
       <c r="AC22">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2878,7 +2768,7 @@
       </c>
       <c r="Y23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=3,1,0)</f>
@@ -2890,14 +2780,14 @@
       </c>
       <c r="AB23" s="1">
         <f>IF(IF(Summary!$S$21,AC23,AD23)=5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="23:28">
@@ -2950,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -2965,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -2986,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T28" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U28" s="3">
         <v>0</v>
@@ -2999,7 +2889,7 @@
       </c>
       <c r="W28">
         <f>SUM(B28:V28)</f>
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3011,55 +2901,55 @@
         <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>2</v>
       </c>
       <c r="H29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N29" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S29" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -3072,7 +2962,7 @@
       </c>
       <c r="W29">
         <f>SUM(B29:V29)</f>
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3084,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3099,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -3120,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P30" s="3">
         <v>0</v>
@@ -3132,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -3141,11 +3031,11 @@
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <f>SUM(B30:V30)</f>
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3166,34 +3056,34 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -3205,20 +3095,20 @@
         <v>0</v>
       </c>
       <c r="S31" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T31" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W31">
         <f>SUM(B31:V31)</f>
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3230,37 +3120,37 @@
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -3291,7 +3181,7 @@
       </c>
       <c r="W32">
         <f>SUM(B32:V32)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3312,43 +3202,43 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -3357,14 +3247,14 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" s="3">
         <v>2</v>
       </c>
       <c r="W33">
         <f>SUM(B33:V33)</f>
-        <v>2</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3469,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3481,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3493,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3514,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3531,10 +3421,10 @@
     </row>
     <row r="39" spans="2:23">
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3543,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3567,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3585,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -3599,7 +3489,7 @@
     </row>
     <row r="40" spans="2:23">
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3629,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3650,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3662,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:23">
@@ -3676,34 +3566,34 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -3762,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3792,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -3806,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3818,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3836,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3866,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -6512,7 +6402,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715586469" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6521,14 +6411,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715586469" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6541,7 +6431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="140" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="P1" zoomScale="140" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6795,7 +6685,7 @@
       </c>
       <c r="AC3">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
         <v>5</v>
@@ -6862,7 +6752,7 @@
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
@@ -7925,7 +7815,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715586469" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7934,14 +7824,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715586469" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8251,7 +8141,7 @@
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>3</v>
@@ -8312,7 +8202,7 @@
       </c>
       <c r="AC5">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -8371,7 +8261,7 @@
       </c>
       <c r="AC6">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -8434,7 +8324,7 @@
       </c>
       <c r="AC7">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
@@ -8488,7 +8378,7 @@
       </c>
       <c r="AC8">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="n">
         <v>5</v>
@@ -8553,7 +8443,7 @@
       </c>
       <c r="AC9">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
         <v>5</v>
@@ -8620,7 +8510,7 @@
       </c>
       <c r="AC10">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
         <v>2</v>
@@ -8813,7 +8703,7 @@
       </c>
       <c r="AC13">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
@@ -8872,7 +8762,7 @@
       </c>
       <c r="AC14">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
         <v>5</v>
@@ -8931,7 +8821,7 @@
       </c>
       <c r="AC15">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
@@ -9049,7 +8939,7 @@
       </c>
       <c r="AC17">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -9167,7 +9057,7 @@
       </c>
       <c r="AC19">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
         <v>4</v>
@@ -9226,7 +9116,7 @@
       </c>
       <c r="AC20">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
         <v>4</v>
@@ -9285,7 +9175,7 @@
       </c>
       <c r="AC21">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -9344,7 +9234,7 @@
       </c>
       <c r="AC22">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD22" t="n">
         <v>3</v>
@@ -9405,7 +9295,7 @@
       </c>
       <c r="AC23">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="n">
         <v>4</v>
@@ -9527,7 +9417,7 @@
       </c>
       <c r="AC25">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
@@ -9586,7 +9476,7 @@
       </c>
       <c r="AC26">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
         <v>3</v>
@@ -9645,7 +9535,7 @@
       </c>
       <c r="AC27">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -9706,7 +9596,7 @@
       </c>
       <c r="AC28">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
         <v>4</v>
@@ -9765,7 +9655,7 @@
       </c>
       <c r="AC29">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD29" t="n">
         <v>2</v>
@@ -9824,7 +9714,7 @@
       </c>
       <c r="AC30">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD30" t="n">
         <v>4</v>
@@ -9944,7 +9834,7 @@
       </c>
       <c r="AC32">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -10003,7 +9893,7 @@
       </c>
       <c r="AC33">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -10121,7 +10011,7 @@
       </c>
       <c r="AC35">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD35" t="n">
         <v>3</v>
@@ -10180,7 +10070,7 @@
       </c>
       <c r="AC36">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD36" t="n">
         <v>2</v>
@@ -14404,7 +14294,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715586469" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14413,14 +14303,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715586469" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14539,11 +14429,11 @@
       </c>
       <c r="G2" s="7">
         <f>Cheeta!G28+BluePill!G8+XCult!G39</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="7">
         <f>Cheeta!H28+BluePill!H8+XCult!H39</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I2" s="7">
         <f>Cheeta!I28+BluePill!I8+XCult!I39</f>
@@ -14559,11 +14449,11 @@
       </c>
       <c r="L2" s="7">
         <f>Cheeta!L28+BluePill!L8+XCult!L39</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2" s="7">
         <f>Cheeta!M28+BluePill!M8+XCult!M39</f>
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="N2" s="7">
         <f>Cheeta!N28+BluePill!N8+XCult!N39</f>
@@ -14571,7 +14461,7 @@
       </c>
       <c r="O2" s="7">
         <f>Cheeta!O28+BluePill!O8+XCult!O39</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P2" s="7">
         <f>Cheeta!P28+BluePill!P8+XCult!P39</f>
@@ -14587,11 +14477,11 @@
       </c>
       <c r="S2" s="7">
         <f>Cheeta!S28+BluePill!S8+XCult!S39</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T2" s="7">
         <f>Cheeta!T28+BluePill!T8+XCult!T39</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U2" s="7">
         <f>Cheeta!U28+BluePill!U8+XCult!U39</f>
@@ -14603,7 +14493,7 @@
       </c>
       <c r="W2">
         <f>SUM(B2:V2)</f>
-        <v>209</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -14616,11 +14506,11 @@
       </c>
       <c r="C3" s="7">
         <f>Cheeta!C29+BluePill!C9+XCult!C40</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <f>Cheeta!D29+BluePill!D9+XCult!D40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7">
         <f>Cheeta!E29+BluePill!E9+XCult!E40</f>
@@ -14628,7 +14518,7 @@
       </c>
       <c r="F3" s="7">
         <f>Cheeta!F29+BluePill!F9+XCult!F40</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="7">
         <f>Cheeta!G29+BluePill!G9+XCult!G40</f>
@@ -14636,19 +14526,19 @@
       </c>
       <c r="H3" s="7">
         <f>Cheeta!H29+BluePill!H9+XCult!H40</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="7">
         <f>Cheeta!I29+BluePill!I9+XCult!I40</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="7">
         <f>Cheeta!J29+BluePill!J9+XCult!J40</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" s="7">
         <f>Cheeta!K29+BluePill!K9+XCult!K40</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" s="7">
         <f>Cheeta!L29+BluePill!L9+XCult!L40</f>
@@ -14656,15 +14546,15 @@
       </c>
       <c r="M3" s="7">
         <f>Cheeta!M29+BluePill!M9+XCult!M40</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N3" s="7">
         <f>Cheeta!N29+BluePill!N9+XCult!N40</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f>Cheeta!O29+BluePill!O9+XCult!O40</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="P3" s="7">
         <f>Cheeta!P29+BluePill!P9+XCult!P40</f>
@@ -14672,15 +14562,15 @@
       </c>
       <c r="Q3" s="7">
         <f>Cheeta!Q29+BluePill!Q9+XCult!Q40</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f>Cheeta!R29+BluePill!R9+XCult!R40</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f>Cheeta!S29+BluePill!S9+XCult!S40</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T3" s="7">
         <f>Cheeta!T29+BluePill!T9+XCult!T40</f>
@@ -14696,7 +14586,7 @@
       </c>
       <c r="W3">
         <f>SUM(B3:V3)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -14709,11 +14599,11 @@
       </c>
       <c r="C4" s="7">
         <f>Cheeta!C30+BluePill!C10+XCult!C41</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
         <f>Cheeta!D30+BluePill!D10+XCult!D41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
         <f>Cheeta!E30+BluePill!E10+XCult!E41</f>
@@ -14729,7 +14619,7 @@
       </c>
       <c r="H4" s="7">
         <f>Cheeta!H30+BluePill!H10+XCult!H41</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
         <f>Cheeta!I30+BluePill!I10+XCult!I41</f>
@@ -14757,7 +14647,7 @@
       </c>
       <c r="O4" s="7">
         <f>Cheeta!O30+BluePill!O10+XCult!O41</f>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7">
         <f>Cheeta!P30+BluePill!P10+XCult!P41</f>
@@ -14773,7 +14663,7 @@
       </c>
       <c r="S4" s="7">
         <f>Cheeta!S30+BluePill!S10+XCult!S41</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
         <f>Cheeta!T30+BluePill!T10+XCult!T41</f>
@@ -14785,11 +14675,11 @@
       </c>
       <c r="V4" s="7">
         <f>Cheeta!V30+BluePill!V10+XCult!V41</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <f>SUM(B4:V4)</f>
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -14814,15 +14704,15 @@
       </c>
       <c r="F5" s="7">
         <f>Cheeta!F31+BluePill!F11+XCult!F42</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7">
         <f>Cheeta!G31+BluePill!G11+XCult!G42</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <f>Cheeta!H31+BluePill!H11+XCult!H42</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
         <f>Cheeta!I31+BluePill!I11+XCult!I42</f>
@@ -14830,19 +14720,19 @@
       </c>
       <c r="J5" s="7">
         <f>Cheeta!J31+BluePill!J11+XCult!J42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7">
         <f>Cheeta!K31+BluePill!K11+XCult!K42</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7">
         <f>Cheeta!L31+BluePill!L11+XCult!L42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="7">
         <f>Cheeta!M31+BluePill!M11+XCult!M42</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
         <f>Cheeta!N31+BluePill!N11+XCult!N42</f>
@@ -14850,7 +14740,7 @@
       </c>
       <c r="O5" s="7">
         <f>Cheeta!O31+BluePill!O11+XCult!O42</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P5" s="7">
         <f>Cheeta!P31+BluePill!P11+XCult!P42</f>
@@ -14866,23 +14756,23 @@
       </c>
       <c r="S5" s="7">
         <f>Cheeta!S31+BluePill!S11+XCult!S42</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T5" s="7">
         <f>Cheeta!T31+BluePill!T11+XCult!T42</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U5" s="7">
         <f>Cheeta!U31+BluePill!U11+XCult!U42</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" s="7">
         <f>Cheeta!V31+BluePill!V11+XCult!V42</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W5">
         <f>SUM(B5:V5)</f>
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -14895,11 +14785,11 @@
       </c>
       <c r="C6" s="7">
         <f>Cheeta!C32+BluePill!C12+XCult!C43</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
         <f>Cheeta!D32+BluePill!D12+XCult!D43</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f>Cheeta!E32+BluePill!E12+XCult!E43</f>
@@ -14907,35 +14797,35 @@
       </c>
       <c r="F6" s="7">
         <f>Cheeta!F32+BluePill!F12+XCult!F43</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
         <f>Cheeta!G32+BluePill!G12+XCult!G43</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <f>Cheeta!H32+BluePill!H12+XCult!H43</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
         <f>Cheeta!I32+BluePill!I12+XCult!I43</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f>Cheeta!J32+BluePill!J12+XCult!J43</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f>Cheeta!K32+BluePill!K12+XCult!K43</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="7">
         <f>Cheeta!L32+BluePill!L12+XCult!L43</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f>Cheeta!M32+BluePill!M12+XCult!M43</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
         <f>Cheeta!N32+BluePill!N12+XCult!N43</f>
@@ -14975,7 +14865,7 @@
       </c>
       <c r="W6">
         <f>SUM(B6:V6)</f>
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -15000,43 +14890,43 @@
       </c>
       <c r="F7" s="7">
         <f>Cheeta!F33+BluePill!F13+XCult!F44</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7">
         <f>Cheeta!G33+BluePill!G13+XCult!G44</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7">
         <f>Cheeta!H33+BluePill!H13+XCult!H44</f>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
         <f>Cheeta!I33+BluePill!I13+XCult!I44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="7">
         <f>Cheeta!J33+BluePill!J13+XCult!J44</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K7" s="7">
         <f>Cheeta!K33+BluePill!K13+XCult!K44</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7">
         <f>Cheeta!L33+BluePill!L13+XCult!L44</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <f>Cheeta!M33+BluePill!M13+XCult!M44</f>
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="N7" s="7">
         <f>Cheeta!N33+BluePill!N13+XCult!N44</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O7" s="7">
         <f>Cheeta!O33+BluePill!O13+XCult!O44</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7">
         <f>Cheeta!P33+BluePill!P13+XCult!P44</f>
@@ -15044,11 +14934,11 @@
       </c>
       <c r="Q7" s="7">
         <f>Cheeta!Q33+BluePill!Q13+XCult!Q44</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R7" s="7">
         <f>Cheeta!R33+BluePill!R13+XCult!R44</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7" s="7">
         <f>Cheeta!S33+BluePill!S13+XCult!S44</f>
@@ -15060,7 +14950,7 @@
       </c>
       <c r="U7" s="7">
         <f>Cheeta!U33+BluePill!U13+XCult!U44</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V7" s="7">
         <f>Cheeta!V33+BluePill!V13+XCult!V44</f>
@@ -15068,7 +14958,7 @@
       </c>
       <c r="W7">
         <f>SUM(B7:V7)</f>
-        <v>255</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -15349,11 +15239,11 @@
       </c>
       <c r="G12" s="7">
         <f t="array" ref="G12:G17">G2:G7/IF(G8=0,1,G8)</f>
-        <v>0.142857142857142838</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <f t="array" ref="H12:H17">H2:H7/IF(H8=0,1,H8)</f>
-        <v>0.25</v>
+        <v>0.138888888888888884</v>
       </c>
       <c r="I12" s="7">
         <f t="array" ref="I12:I17">I2:I7/IF(I8=0,1,I8)</f>
@@ -15369,11 +15259,11 @@
       </c>
       <c r="L12" s="7">
         <f t="array" ref="L12:L17">L2:L7/IF(L8=0,1,L8)</f>
-        <v>0.161290322580645151</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
         <f t="array" ref="M12:M17">M2:M7/IF(M8=0,1,M8)</f>
-        <v>0.440789473684210531</v>
+        <v>0.013157894736842104</v>
       </c>
       <c r="N12" s="7">
         <f t="array" ref="N12:N17">N2:N7/IF(N8=0,1,N8)</f>
@@ -15381,7 +15271,7 @@
       </c>
       <c r="O12" s="7">
         <f t="array" ref="O12:O17">O2:O7/IF(O8=0,1,O8)</f>
-        <v>0.136986301369863006</v>
+        <v>0</v>
       </c>
       <c r="P12" s="7">
         <f t="array" ref="P12:P17">P2:P7/IF(P8=0,1,P8)</f>
@@ -15397,11 +15287,11 @@
       </c>
       <c r="S12" s="7">
         <f t="array" ref="S12:S17">S2:S7/IF(S8=0,1,S8)</f>
-        <v>0.103448275862068972</v>
+        <v>0.44827586206896548</v>
       </c>
       <c r="T12" s="7">
         <f t="array" ref="T12:T17">T2:T7/IF(T8=0,1,T8)</f>
-        <v>0.434782608695652151</v>
+        <v>0.217391304347826075</v>
       </c>
       <c r="U12" s="7">
         <f t="array" ref="U12:U17">U2:U7/IF(U8=0,1,U8)</f>
@@ -15413,7 +15303,7 @@
       </c>
       <c r="W12">
         <f>SUM(B12:V12)</f>
-        <v>3.43764182731989409</v>
+        <v>2.58520165231283361</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -15424,55 +15314,55 @@
         <v>0.05</v>
       </c>
       <c r="C13" s="7">
-        <v>0.108108108108108114</v>
+        <v>0.216216216216216228</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>0.444444444444444464</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>0.152173913043478271</v>
+        <v>0.0652173913043478315</v>
       </c>
       <c r="G13" s="7">
         <v>0.214285714285714279</v>
       </c>
       <c r="H13" s="7">
-        <v>0.0972222222222222143</v>
+        <v>0.0833333333333333215</v>
       </c>
       <c r="I13" s="7">
-        <v>0.454545454545454497</v>
+        <v>0.181818181818181834</v>
       </c>
       <c r="J13" s="7">
-        <v>0.428571428571428559</v>
+        <v>0.214285714285714279</v>
       </c>
       <c r="K13" s="7">
-        <v>0.178571428571428577</v>
+        <v>0.214285714285714279</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>0.171052631578947363</v>
       </c>
       <c r="N13" s="7">
-        <v>0.222222222222222232</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>0.123287671232876717</v>
+        <v>0.205479452054794498</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="7">
-        <v>0.24137931034482758</v>
+        <v>0.13793103448275863</v>
       </c>
       <c r="T13" s="7">
         <v>0</v>
@@ -15485,7 +15375,7 @@
       </c>
       <c r="W13">
         <f>SUM(B13:V13)</f>
-        <v>4.27036747314776122</v>
+        <v>2.19834982809016655</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -15496,10 +15386,10 @@
         <v>0.15</v>
       </c>
       <c r="C14" s="7">
-        <v>0.405405405405405439</v>
+        <v>0.35135135135135136</v>
       </c>
       <c r="D14" s="7">
-        <v>0.0740740740740740655</v>
+        <v>0.0370370370370370328</v>
       </c>
       <c r="E14" s="7">
         <v>0.2</v>
@@ -15511,7 +15401,7 @@
         <v>0.214285714285714279</v>
       </c>
       <c r="H14" s="7">
-        <v>0.138888888888888884</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -15532,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>0.134246575342465757</v>
+        <v>0.0410958904109588996</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -15544,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="7">
-        <v>0.344827586206896575</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7">
         <v>0</v>
@@ -15553,11 +15443,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <f>SUM(B14:V14)</f>
-        <v>2.24324684002410013</v>
+        <v>1.42144243505956291</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -15577,34 +15467,34 @@
         <v>0.266666666666666652</v>
       </c>
       <c r="F15" s="7">
-        <v>0.217391304347826075</v>
+        <v>0.347826086956521729</v>
       </c>
       <c r="G15" s="7">
-        <v>0.0714285714285714235</v>
+        <v>0.142857142857142838</v>
       </c>
       <c r="H15" s="7">
-        <v>0.222222222222222232</v>
+        <v>0.25</v>
       </c>
       <c r="I15" s="7">
         <v>0.181818181818181834</v>
       </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>0.0714285714285714235</v>
       </c>
       <c r="K15" s="7">
-        <v>0.214285714285714279</v>
+        <v>0.0357142857142857117</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>0.0322580645161290303</v>
       </c>
       <c r="M15" s="7">
-        <v>0.171052631578947363</v>
+        <v>0.00657894736842105221</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>0.126027397260273988</v>
+        <v>0.136986301369863006</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -15616,20 +15506,20 @@
         <v>0</v>
       </c>
       <c r="S15" s="7">
-        <v>0.103448275862068972</v>
+        <v>0.206896551724137945</v>
       </c>
       <c r="T15" s="7">
-        <v>0.521739130434782616</v>
+        <v>0.739130434782608603</v>
       </c>
       <c r="U15" s="7">
-        <v>0.555555555555555536</v>
+        <v>0.333333333333333304</v>
       </c>
       <c r="V15" s="7">
-        <v>0.692307692307692335</v>
+        <v>0.846153846153846168</v>
       </c>
       <c r="W15">
         <f>SUM(B15:V15)</f>
-        <v>3.64301741784257693</v>
+        <v>3.89672248876378369</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -15640,37 +15530,37 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="7">
-        <v>0.189189189189189211</v>
+        <v>0.135135135135135132</v>
       </c>
       <c r="D16" s="7">
-        <v>0.407407407407407351</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
         <v>0.2</v>
       </c>
       <c r="F16" s="7">
-        <v>0.195652173913043477</v>
+        <v>0.0652173913043478315</v>
       </c>
       <c r="G16" s="7">
-        <v>0.0714285714285714235</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
-        <v>0.125</v>
+        <v>0.0694444444444444464</v>
       </c>
       <c r="I16" s="7">
-        <v>0.181818181818181834</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>0.0714285714285714235</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>0.142857142857142838</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="L16" s="7">
-        <v>0.0322580645161290303</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>0.0921052631578947256</v>
+        <v>0.0855263157894736814</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -15701,7 +15591,7 @@
       </c>
       <c r="W16">
         <f>SUM(B16:V16)</f>
-        <v>2.06336916574488427</v>
+        <v>1.01669074384501101</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -15721,43 +15611,43 @@
         <v>0.133333333333333326</v>
       </c>
       <c r="F17" s="7">
-        <v>0.17391304347826086</v>
+        <v>0.260869565217391308</v>
       </c>
       <c r="G17" s="7">
-        <v>0.285714285714285676</v>
+        <v>0.428571428571428559</v>
       </c>
       <c r="H17" s="7">
-        <v>0.166666666666666652</v>
+        <v>0.458333333333333304</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>0.454545454545454497</v>
       </c>
       <c r="J17" s="7">
-        <v>0.357142857142857162</v>
+        <v>0.571428571428571352</v>
       </c>
       <c r="K17" s="7">
-        <v>0.25</v>
+        <v>0.428571428571428559</v>
       </c>
       <c r="L17" s="7">
-        <v>0.806451612903225801</v>
+        <v>0.967741935483870996</v>
       </c>
       <c r="M17" s="7">
-        <v>0.256578947368421062</v>
+        <v>0.684210526315789469</v>
       </c>
       <c r="N17" s="7">
-        <v>0.555555555555555536</v>
+        <v>0.777777777777777768</v>
       </c>
       <c r="O17" s="7">
-        <v>0.287671232876712324</v>
+        <v>0.424657534246575352</v>
       </c>
       <c r="P17" s="7">
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="7">
         <v>0.13793103448275863</v>
@@ -15766,14 +15656,14 @@
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>0.444444444444444464</v>
+        <v>0.666666666666666607</v>
       </c>
       <c r="V17" s="7">
         <v>0.15384615384615385</v>
       </c>
       <c r="W17">
         <f>SUM(B17:V17)</f>
-        <v>4.34235727592078291</v>
+        <v>8.8815928519286409</v>
       </c>
     </row>
     <row r="20" spans="19:19">
@@ -15790,7 +15680,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715586469" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15799,15 +15689,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715586469" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15818,9 +15708,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="170" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="D1" zoomScale="170" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -16110,7 +16000,7 @@
       </c>
       <c r="AC3">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -16209,7 +16099,7 @@
       </c>
       <c r="AC4">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -16506,7 +16396,7 @@
       </c>
       <c r="AC7">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
         <v>5</v>
@@ -16605,7 +16495,7 @@
       </c>
       <c r="AC8">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
@@ -16704,7 +16594,7 @@
       </c>
       <c r="AC9">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -16900,7 +16790,7 @@
       </c>
       <c r="AC11">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
         <v>3</v>
@@ -16999,7 +16889,7 @@
       </c>
       <c r="AC12">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>5</v>
@@ -17098,7 +16988,7 @@
       </c>
       <c r="AC13">
         <f aca="1">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
@@ -17125,11 +17015,16 @@
         <v>50</v>
       </c>
     </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715364026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715586469" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17138,14 +17033,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715364026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715586469" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715364026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715586469" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
